--- a/model/results/mix0_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/mix0_ggpos_h2pos/v_emissions.xlsx
@@ -790,7 +790,7 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E3" t="n">
-        <v>849791.0256410255</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F3" t="n">
         <v>849791.0256410255</v>
@@ -921,7 +921,7 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E4" t="n">
-        <v>849791.0256410255</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F4" t="n">
         <v>849791.0256410255</v>
@@ -1052,7 +1052,7 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E5" t="n">
-        <v>849791.0256410255</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F5" t="n">
         <v>849791.0256410255</v>
@@ -1174,7 +1174,7 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>2776335.897435897</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="C6" t="n">
         <v>1520949.23076923</v>
@@ -1183,10 +1183,10 @@
         <v>1520949.23076923</v>
       </c>
       <c r="E6" t="n">
-        <v>729325.53963694</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>849791.0256410255</v>
+        <v>465537.6923076921</v>
       </c>
       <c r="G6" t="n">
         <v>65600</v>
@@ -1305,7 +1305,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1520949.23076923</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="C7" t="n">
         <v>1520949.23076923</v>
@@ -1314,7 +1314,7 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E7" t="n">
-        <v>465537.6923076921</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F7" t="n">
         <v>465537.6923076921</v>
@@ -1436,16 +1436,16 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
+        <v>265562.5641025628</v>
+      </c>
+      <c r="C8" t="n">
         <v>1520949.23076923</v>
-      </c>
-      <c r="C8" t="n">
-        <v>265562.5641025634</v>
       </c>
       <c r="D8" t="n">
         <v>265562.5641025634</v>
       </c>
       <c r="E8" t="n">
-        <v>465537.6923076921</v>
+        <v>240158.3333333332</v>
       </c>
       <c r="F8" t="n">
         <v>465537.6923076921</v>
@@ -1567,7 +1567,7 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1520949.23076923</v>
+        <v>265562.5641025627</v>
       </c>
       <c r="C9" t="n">
         <v>265562.5641025634</v>
@@ -1576,10 +1576,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E9" t="n">
-        <v>81284.35897435877</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>81284.35897435877</v>
+        <v>465537.6923076921</v>
       </c>
       <c r="G9" t="n">
         <v>65600</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.551115123125783e-13</v>
+        <v>8.326672684688674e-14</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.249000902703301e-12</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="C10" t="n">
         <v>265562.5641025634</v>
@@ -1707,7 +1707,7 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E10" t="n">
-        <v>81284.35897435877</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F10" t="n">
         <v>81284.35897435877</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.551115123125783e-13</v>
+        <v>8.326672684688674e-14</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.249000902703301e-12</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="C11" t="n">
         <v>265562.5641025634</v>
@@ -1838,7 +1838,7 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E11" t="n">
-        <v>81284.35897435877</v>
+        <v>240158.3333333332</v>
       </c>
       <c r="F11" t="n">
         <v>81284.35897435877</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.551115123125783e-13</v>
+        <v>8.326672684688674e-14</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.249000902703301e-12</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>265562.5641025436</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="C12" t="n">
         <v>265562.5641025634</v>
@@ -1969,7 +1969,7 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E12" t="n">
-        <v>81284.35897435877</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F12" t="n">
         <v>81284.35897435877</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.551115123125783e-13</v>
+        <v>8.326672684688674e-14</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.249000902703301e-12</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E13" t="n">
-        <v>81284.35897435877</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897432892</v>
       </c>
       <c r="G13" t="n">
         <v>65600</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.551115123125783e-13</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.249000902703301e-12</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2228,13 +2228,13 @@
         <v>265562.5641025634</v>
       </c>
       <c r="D14" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025339</v>
       </c>
       <c r="E14" t="n">
-        <v>81284.35897433884</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435859</v>
       </c>
       <c r="G14" t="n">
         <v>65600</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-1.110223024625157e-12</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2356,16 +2356,16 @@
         <v>265562.5641025634</v>
       </c>
       <c r="C15" t="n">
-        <v>265562.5641025435</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D15" t="n">
         <v>265562.5641025634</v>
       </c>
       <c r="E15" t="n">
-        <v>81284.35897435877</v>
+        <v>240158.3333333101</v>
       </c>
       <c r="F15" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435853</v>
       </c>
       <c r="G15" t="n">
         <v>65600</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C16" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D16" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E16" t="n">
-        <v>81284.35897435877</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>81284.35897435591</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G16" t="n">
         <v>65600</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C17" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D17" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E17" t="n">
-        <v>81284.35897435591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>81284.35897435591</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G17" t="n">
         <v>65600</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C18" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D18" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E18" t="n">
-        <v>81284.35897435591</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>81284.35897435591</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G18" t="n">
         <v>65600</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C19" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D19" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E19" t="n">
-        <v>81284.35897435877</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>81284.35897435591</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G19" t="n">
         <v>65600</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C20" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D20" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E20" t="n">
-        <v>81284.35897435591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>81284.35897435591</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G20" t="n">
         <v>65600</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C21" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D21" t="n">
-        <v>265562.5641025541</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E21" t="n">
-        <v>81284.35897435591</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>81284.35897435591</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G21" t="n">
         <v>65600</v>
